--- a/tableClient/question4.xlsx
+++ b/tableClient/question4.xlsx
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="C794" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
